--- a/bin/Debug/配置文件.xlsx
+++ b/bin/Debug/配置文件.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\C#Code\FOGTestPlatform\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCCB159-9411-4B7C-80EC-A79A770F3B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6544C5A-17A9-4957-9070-DE8CA5C4052D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通道串口配置" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>使能</t>
   </si>
@@ -137,6 +137,38 @@
   </si>
   <si>
     <t>变速时间（s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点重力加速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采样频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要高采样率（计算Allan方差）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否保存16进制数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,15 +532,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -641,6 +674,67 @@
       </c>
       <c r="B9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>29.3935412777777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>106.275720083333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/bin/Debug/配置文件.xlsx
+++ b/bin/Debug/配置文件.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\C#Code\FOGTestPlatform\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6544C5A-17A9-4957-9070-DE8CA5C4052D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A6DC53-BD1A-4B55-AD8B-22ECD8927D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通道串口配置" sheetId="1" r:id="rId1"/>
     <sheet name="标度因数参数" sheetId="2" r:id="rId2"/>
+    <sheet name="死区测试" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>使能</t>
   </si>
@@ -169,6 +170,30 @@
   </si>
   <si>
     <t>是否保存16进制数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所用编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步进角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,6 +201,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,8 +242,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -749,7 +780,7 @@
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -903,4 +934,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A59B3B-4527-4D4C-871E-EC7DD91BA649}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/bin/Debug/配置文件.xlsx
+++ b/bin/Debug/配置文件.xlsx
@@ -1,210 +1,220 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\C#Code\FOGTestPlatform\bin\Debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A6DC53-BD1A-4B55-AD8B-22ECD8927D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr autoCompressPictures="1" defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="通道串口配置" sheetId="1" r:id="rId1"/>
     <sheet name="标度因数参数" sheetId="2" r:id="rId2"/>
     <sheet name="死区测试" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
-  <si>
-    <t>使能</t>
-  </si>
-  <si>
-    <t>串口号</t>
-  </si>
-  <si>
-    <t>波特率</t>
-  </si>
-  <si>
-    <t>数据位</t>
-  </si>
-  <si>
-    <t>停止位</t>
-  </si>
-  <si>
-    <t>校验位</t>
-  </si>
-  <si>
-    <t>型号</t>
-  </si>
-  <si>
-    <t>标度因数</t>
-  </si>
-  <si>
-    <t>转台通道</t>
-  </si>
-  <si>
-    <t>通道一</t>
-  </si>
-  <si>
-    <t>通道二</t>
-  </si>
-  <si>
-    <t>通道三</t>
-  </si>
-  <si>
-    <t>通道四</t>
-  </si>
-  <si>
-    <t>通道五</t>
-  </si>
-  <si>
-    <t>通道六</t>
-  </si>
-  <si>
-    <t>测试通道数</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>460800</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>CH1</t>
-  </si>
-  <si>
-    <t>4200000</t>
-  </si>
-  <si>
-    <t>COM2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM1</t>
-  </si>
-  <si>
-    <t>115200</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所用数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转时间（s）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变速时间（s）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点经度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点高度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点重力加速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采样频率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否需要高采样率（计算Allan方差）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否保存16进制数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所用编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起始角度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终止角度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步进角度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="56">
+  <si>
+    <t xml:space="preserve">使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">串口号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">波特率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">停止位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">校验位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">型号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标度因数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">转台通道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道二</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道三</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道四</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道五</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通道六</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试通道数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">460800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">COM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">even</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">所用数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">旋转时间（s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">变速时间（s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">测试点纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">测试点经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">测试点高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">测试点重力加速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">采样频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">环境信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">是否需要高采样率（计算Allan方差）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">是否保存16进制数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">所用编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">参数编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">起始角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">终止角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">步进角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">采集时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">COM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -238,15 +248,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -256,11 +266,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -562,20 +572,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="33.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -609,7 +619,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -630,7 +640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -659,60 +669,109 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -720,7 +779,7 @@
         <v>29.3935412777777</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -728,7 +787,7 @@
         <v>106.275720083333</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -736,7 +795,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -744,7 +803,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -752,15 +811,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -776,21 +835,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -798,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -818,7 +877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>0</v>
       </c>
@@ -913,7 +972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -921,7 +980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -937,16 +996,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A59B3B-4527-4D4C-871E-EC7DD91BA649}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -954,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -962,35 +1021,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="1">
-        <v>10</v>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="F4">
-        <v>0.1</v>
+      <c r="F4" t="s">
+        <v>55</v>
       </c>
       <c r="G4" t="s">
         <v>47</v>
       </c>
-      <c r="H4">
-        <v>300</v>
+      <c r="H4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>